--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220510_110604.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220510_110604.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>vibe</t>
+    <t>Vibe</t>
   </si>
   <si>
     <t>2022-05-10</t>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220510_110604.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220510_110604.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="253">
   <si>
     <t>사이트</t>
   </si>
@@ -1130,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3718,22 +3718,22 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E100" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F100" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="G100" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="H100" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3744,47 +3744,21 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F101" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="H101" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>100</v>
-      </c>
-      <c r="D102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" t="s">
-        <v>135</v>
-      </c>
-      <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s">
-        <v>227</v>
-      </c>
-      <c r="H102" t="s">
         <v>252</v>
       </c>
     </row>

--- a/Crawling/music/crawled_data/mod_vibe/live_vibe_20220510_110604.xlsx
+++ b/Crawling/music/crawled_data/mod_vibe/live_vibe_20220510_110604.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="252">
   <si>
     <t>사이트</t>
   </si>
@@ -721,7 +721,7 @@
     <t>SSK</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>스윙</t>
@@ -770,9 +770,6 @@
   </si>
   <si>
     <t>THE L1VE</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1208,7 @@
         <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1237,7 +1234,7 @@
         <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1315,7 +1312,7 @@
         <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1341,7 +1338,7 @@
         <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1367,7 +1364,7 @@
         <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1393,7 +1390,7 @@
         <v>223</v>
       </c>
       <c r="H10" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1471,7 +1468,7 @@
         <v>226</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1497,7 +1494,7 @@
         <v>227</v>
       </c>
       <c r="H14" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1523,7 +1520,7 @@
         <v>219</v>
       </c>
       <c r="H15" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1549,7 +1546,7 @@
         <v>228</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1575,7 +1572,7 @@
         <v>229</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1601,7 +1598,7 @@
         <v>219</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1627,7 +1624,7 @@
         <v>230</v>
       </c>
       <c r="H19" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1653,7 +1650,7 @@
         <v>231</v>
       </c>
       <c r="H20" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1679,7 +1676,7 @@
         <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1705,7 +1702,7 @@
         <v>232</v>
       </c>
       <c r="H22" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1731,7 +1728,7 @@
         <v>233</v>
       </c>
       <c r="H23" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1757,7 +1754,7 @@
         <v>234</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1783,7 +1780,7 @@
         <v>235</v>
       </c>
       <c r="H25" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1809,7 +1806,7 @@
         <v>231</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1913,7 +1910,7 @@
         <v>220</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1939,7 +1936,7 @@
         <v>237</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1965,7 +1962,7 @@
         <v>238</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1991,7 +1988,7 @@
         <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2017,7 +2014,7 @@
         <v>227</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2095,7 +2092,7 @@
         <v>240</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2121,7 +2118,7 @@
         <v>241</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2173,7 +2170,7 @@
         <v>224</v>
       </c>
       <c r="H40" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2199,7 +2196,7 @@
         <v>237</v>
       </c>
       <c r="H41" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2251,7 +2248,7 @@
         <v>227</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2277,7 +2274,7 @@
         <v>223</v>
       </c>
       <c r="H44" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2303,7 +2300,7 @@
         <v>227</v>
       </c>
       <c r="H45" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2329,7 +2326,7 @@
         <v>242</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2355,7 +2352,7 @@
         <v>219</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2459,7 +2456,7 @@
         <v>235</v>
       </c>
       <c r="H51" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2485,7 +2482,7 @@
         <v>220</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2511,7 +2508,7 @@
         <v>227</v>
       </c>
       <c r="H53" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2537,7 +2534,7 @@
         <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2563,7 +2560,7 @@
         <v>232</v>
       </c>
       <c r="H55" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2589,7 +2586,7 @@
         <v>232</v>
       </c>
       <c r="H56" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2615,7 +2612,7 @@
         <v>231</v>
       </c>
       <c r="H57" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2667,7 +2664,7 @@
         <v>227</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2693,7 +2690,7 @@
         <v>235</v>
       </c>
       <c r="H60" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2719,7 +2716,7 @@
         <v>232</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2745,7 +2742,7 @@
         <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2797,7 +2794,7 @@
         <v>245</v>
       </c>
       <c r="H64" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2823,7 +2820,7 @@
         <v>246</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2849,7 +2846,7 @@
         <v>229</v>
       </c>
       <c r="H66" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2875,7 +2872,7 @@
         <v>227</v>
       </c>
       <c r="H67" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2953,7 +2950,7 @@
         <v>232</v>
       </c>
       <c r="H70" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3005,7 +3002,7 @@
         <v>219</v>
       </c>
       <c r="H72" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3031,7 +3028,7 @@
         <v>241</v>
       </c>
       <c r="H73" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3057,7 +3054,7 @@
         <v>247</v>
       </c>
       <c r="H74" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3083,7 +3080,7 @@
         <v>231</v>
       </c>
       <c r="H75" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3109,7 +3106,7 @@
         <v>238</v>
       </c>
       <c r="H76" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3135,7 +3132,7 @@
         <v>248</v>
       </c>
       <c r="H77" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3161,7 +3158,7 @@
         <v>238</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3187,7 +3184,7 @@
         <v>235</v>
       </c>
       <c r="H79" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3213,7 +3210,7 @@
         <v>249</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3239,7 +3236,7 @@
         <v>235</v>
       </c>
       <c r="H81" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3265,7 +3262,7 @@
         <v>227</v>
       </c>
       <c r="H82" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3317,7 +3314,7 @@
         <v>241</v>
       </c>
       <c r="H84" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3343,7 +3340,7 @@
         <v>250</v>
       </c>
       <c r="H85" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3369,7 +3366,7 @@
         <v>235</v>
       </c>
       <c r="H86" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3395,7 +3392,7 @@
         <v>227</v>
       </c>
       <c r="H87" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3421,7 +3418,7 @@
         <v>232</v>
       </c>
       <c r="H88" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3473,7 +3470,7 @@
         <v>245</v>
       </c>
       <c r="H90" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3499,7 +3496,7 @@
         <v>219</v>
       </c>
       <c r="H91" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3577,7 +3574,7 @@
         <v>246</v>
       </c>
       <c r="H94" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3629,7 +3626,7 @@
         <v>248</v>
       </c>
       <c r="H96" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3655,7 +3652,7 @@
         <v>251</v>
       </c>
       <c r="H97" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3681,7 +3678,7 @@
         <v>232</v>
       </c>
       <c r="H98" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3707,7 +3704,7 @@
         <v>224</v>
       </c>
       <c r="H99" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3730,10 +3727,10 @@
         <v>169</v>
       </c>
       <c r="G100" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H100" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3759,7 +3756,7 @@
         <v>227</v>
       </c>
       <c r="H101" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
